--- a/Project/학습노트/엑셀.xlsx
+++ b/Project/학습노트/엑셀.xlsx
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
